--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\finsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798B955D-2448-465E-A148-1338C8EA4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9C80B-1820-423E-88A4-29BD59FCC0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28670" yWindow="0" windowWidth="38600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>Linophryne algibarbata</t>
   </si>
   <si>
-    <t>[FishEgg][ArrowDown][FishLengthSmall] on each [AllPlayers]</t>
-  </si>
-  <si>
     <t>Bearded seadevils attract prey with their bioluminescent lure and elaborate bioluminescent chin barbel.</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>Venomous</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][FishLengthSmall] on each [AllPlayers]</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>220</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>221</v>
       </c>
-      <c r="T1" t="s">
-        <v>222</v>
-      </c>
       <c r="U1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -1493,7 +1493,7 @@
         <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V10" t="s">
         <v>55</v>
@@ -1619,7 +1619,7 @@
         <v>66</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V13" t="s">
         <v>67</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V14" t="s">
         <v>71</v>
@@ -1704,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="U15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V15" t="s">
         <v>74</v>
@@ -1745,7 +1745,7 @@
         <v>77</v>
       </c>
       <c r="U16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V16" t="s">
         <v>78</v>
@@ -1786,7 +1786,7 @@
         <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -1806,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1836,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1877,10 +1877,10 @@
         <v>22</v>
       </c>
       <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" t="s">
         <v>88</v>
-      </c>
-      <c r="V19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" t="s">
         <v>92</v>
-      </c>
-      <c r="V20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -1929,10 +1929,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1956,10 +1956,10 @@
         <v>22</v>
       </c>
       <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" t="s">
         <v>96</v>
-      </c>
-      <c r="V21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -1970,10 +1970,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
         <v>98</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1997,10 +1997,10 @@
         <v>22</v>
       </c>
       <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="V22" t="s">
         <v>104</v>
-      </c>
-      <c r="V22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -2011,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>107</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2035,13 +2035,13 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>108</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -2052,10 +2052,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2076,10 +2076,10 @@
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -2090,10 +2090,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
         <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2111,13 +2111,13 @@
         <v>22</v>
       </c>
       <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>115</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -2128,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
         <v>117</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2149,10 +2149,10 @@
         <v>37</v>
       </c>
       <c r="O26" t="s">
+        <v>118</v>
+      </c>
+      <c r="V26" t="s">
         <v>119</v>
-      </c>
-      <c r="V26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -2163,10 +2163,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2184,13 +2184,13 @@
         <v>37</v>
       </c>
       <c r="O27" t="s">
+        <v>122</v>
+      </c>
+      <c r="U27" t="s">
+        <v>101</v>
+      </c>
+      <c r="V27" t="s">
         <v>123</v>
-      </c>
-      <c r="U27" t="s">
-        <v>102</v>
-      </c>
-      <c r="V27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -2201,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S28">
         <v>2</v>
       </c>
       <c r="V28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -2248,10 +2248,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>130</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2272,10 +2272,10 @@
         <v>23</v>
       </c>
       <c r="O29" t="s">
+        <v>130</v>
+      </c>
+      <c r="V29" t="s">
         <v>131</v>
-      </c>
-      <c r="V29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -2286,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2307,13 +2307,13 @@
         <v>22</v>
       </c>
       <c r="O30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>135</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -2324,10 +2324,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2345,10 +2345,10 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
+        <v>138</v>
+      </c>
+      <c r="V31" t="s">
         <v>139</v>
-      </c>
-      <c r="V31" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -2359,10 +2359,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
         <v>141</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>23</v>
       </c>
       <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
         <v>143</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
@@ -2403,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
         <v>145</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2430,13 +2430,13 @@
         <v>23</v>
       </c>
       <c r="O33" t="s">
+        <v>146</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
         <v>147</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
@@ -2447,10 +2447,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
@@ -2485,10 +2485,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
         <v>152</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2509,13 +2509,13 @@
         <v>37</v>
       </c>
       <c r="O35" t="s">
+        <v>153</v>
+      </c>
+      <c r="U35" t="s">
+        <v>101</v>
+      </c>
+      <c r="V35" t="s">
         <v>154</v>
-      </c>
-      <c r="U35" t="s">
-        <v>102</v>
-      </c>
-      <c r="V35" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
@@ -2526,10 +2526,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
         <v>156</v>
-      </c>
-      <c r="D36" t="s">
-        <v>157</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2550,16 +2550,16 @@
         <v>23</v>
       </c>
       <c r="O36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
         <v>158</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="V36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
@@ -2570,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" t="s">
-        <v>161</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2597,10 +2597,10 @@
         <v>22</v>
       </c>
       <c r="O37" t="s">
+        <v>161</v>
+      </c>
+      <c r="V37" t="s">
         <v>162</v>
-      </c>
-      <c r="V37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
@@ -2611,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
         <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2632,16 +2632,16 @@
         <v>22</v>
       </c>
       <c r="O38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
         <v>166</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
@@ -2652,10 +2652,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
         <v>168</v>
-      </c>
-      <c r="D39" t="s">
-        <v>169</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2679,16 +2679,16 @@
         <v>22</v>
       </c>
       <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
         <v>170</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
@@ -2699,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
         <v>172</v>
-      </c>
-      <c r="D40" t="s">
-        <v>173</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2726,10 +2726,10 @@
         <v>77</v>
       </c>
       <c r="U40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
@@ -2740,10 +2740,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
         <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>176</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>22</v>
       </c>
       <c r="O41" t="s">
+        <v>176</v>
+      </c>
+      <c r="V41" t="s">
         <v>177</v>
-      </c>
-      <c r="V41" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
@@ -2778,10 +2778,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2802,10 +2802,10 @@
         <v>23</v>
       </c>
       <c r="O42" t="s">
+        <v>180</v>
+      </c>
+      <c r="V42" t="s">
         <v>181</v>
-      </c>
-      <c r="V42" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -2816,10 +2816,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" t="s">
-        <v>184</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2837,13 +2837,13 @@
         <v>22</v>
       </c>
       <c r="O43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
@@ -2854,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s">
         <v>186</v>
-      </c>
-      <c r="D44" t="s">
-        <v>187</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -2881,10 +2881,10 @@
         <v>66</v>
       </c>
       <c r="U44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
@@ -2895,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
         <v>189</v>
-      </c>
-      <c r="D45" t="s">
-        <v>190</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2919,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="V45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
@@ -2930,10 +2930,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
         <v>192</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2957,13 +2957,13 @@
         <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S46">
         <v>2</v>
       </c>
       <c r="V46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
@@ -2974,10 +2974,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
         <v>196</v>
-      </c>
-      <c r="D47" t="s">
-        <v>197</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
@@ -3015,10 +3015,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
         <v>199</v>
-      </c>
-      <c r="D48" t="s">
-        <v>200</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3039,10 +3039,10 @@
         <v>22</v>
       </c>
       <c r="O48" t="s">
+        <v>200</v>
+      </c>
+      <c r="V48" t="s">
         <v>201</v>
-      </c>
-      <c r="V48" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
@@ -3053,10 +3053,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" t="s">
-        <v>204</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
@@ -3100,10 +3100,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" t="s">
         <v>206</v>
-      </c>
-      <c r="D50" t="s">
-        <v>207</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>22</v>
       </c>
       <c r="O50" t="s">
+        <v>207</v>
+      </c>
+      <c r="V50" t="s">
         <v>208</v>
-      </c>
-      <c r="V50" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
@@ -3147,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
         <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>211</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
@@ -3348,10 +3348,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
         <v>213</v>
-      </c>
-      <c r="D72" t="s">
-        <v>214</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>37</v>
       </c>
       <c r="O72" t="s">
+        <v>215</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="V72" t="s">
         <v>216</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-      <c r="V72" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\finsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9C80B-1820-423E-88A4-29BD59FCC0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D041EF1-A0C3-4477-A6E2-FADE3821867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28670" yWindow="0" windowWidth="38600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -694,6 +694,195 @@
   </si>
   <si>
     <t>(all players) [FishEgg][ArrowDown][FishLengthSmall] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>Giant Hawkfish</t>
+  </si>
+  <si>
+    <t>Cirrhitus rivulatus</t>
+  </si>
+  <si>
+    <t>[FishHatch][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>Named for its hawklike hunting technique, it perches on the high point of a coral reef and dives down upon prey.</t>
+  </si>
+  <si>
+    <t>Giant Manta Ray</t>
+  </si>
+  <si>
+    <t>Mohula birostris</t>
+  </si>
+  <si>
+    <t>[YoungFish][YoungFish][YoungFish]</t>
+  </si>
+  <si>
+    <t>The largest ray in the world, it has the biggest brain of any fish by volume—ten times larger than a whale shark’s.</t>
+  </si>
+  <si>
+    <t>Giant Oarfish</t>
+  </si>
+  <si>
+    <t>Regalecus glesne</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][FlipperBlue] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>Rarely seen, the oarfish is the world’s longest bony fish. It’s believed to be the cause of sea serpent sightings.</t>
+  </si>
+  <si>
+    <t>Giant Trevally</t>
+  </si>
+  <si>
+    <t>Caranx ignobilis</t>
+  </si>
+  <si>
+    <t>The giant trevally is known to prey upon fledgling seabirds that fall into the water while learning to fly.</t>
+  </si>
+  <si>
+    <t>Gray Triggerfish</t>
+  </si>
+  <si>
+    <t>Balistes capriscus</t>
+  </si>
+  <si>
+    <t>Its first, tall dorsal spine remains erect until the smaller second spine is deflexed, triggering the first.</t>
+  </si>
+  <si>
+    <t>Great Northern Tilefish</t>
+  </si>
+  <si>
+    <t>Lopholatilus chamaeleonticeps</t>
+  </si>
+  <si>
+    <t>[FishHatch][FishHatch]</t>
+  </si>
+  <si>
+    <t>This colorful fish is known as the clown of the sea. It burrows into the sediment at the bottom of the ocean.</t>
+  </si>
+  <si>
+    <t>Great White Shark</t>
+  </si>
+  <si>
+    <t>Carcharodon carcharias</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][Predator] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>Known by scientists as simply the “white shark,” this famous predator is, itself, occasionally preyed upon by orca whales.</t>
+  </si>
+  <si>
+    <t>Greenland Shark</t>
+  </si>
+  <si>
+    <t>Somniosus microcephalus</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][FishLengthLarge] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>This shark currently holds the record as the longest-lived vertebrate, with an estimated lifespan of over 250 years.</t>
+  </si>
+  <si>
+    <t>Grideye Fish</t>
+  </si>
+  <si>
+    <t>Ipnops agassizii</t>
+  </si>
+  <si>
+    <t>[FishEgg][ArrowDown][PlayFishBottomRow] on each</t>
+  </si>
+  <si>
+    <t>Its eyes are flat, cornea-like, light-sensitive organs without lenses that cover most of the upper surface of the head.</t>
+  </si>
+  <si>
+    <t>Haddock</t>
+  </si>
+  <si>
+    <t>Melanogrammus aeglefinus</t>
+  </si>
+  <si>
+    <t>It lives on gravelly, sandy, and pebbly seafloors, where it feeds on small fish, worms, mollusks, and eggs.</t>
+  </si>
+  <si>
+    <t>Hogfish</t>
+  </si>
+  <si>
+    <t>Lachnolaimus maximus</t>
+  </si>
+  <si>
+    <t>[Discard][Discard][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>Its common name comes from its long pig-like snout and how it roots around the seafloor searching for food.</t>
+  </si>
+  <si>
+    <t>Honeycomb Scaly Dragonfish</t>
+  </si>
+  <si>
+    <t>Stomias affinis</t>
+  </si>
+  <si>
+    <t>[YoungFish][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>This fish can be found in deep waters during the day and in shallower areas at night, where it searches for food.</t>
+  </si>
+  <si>
+    <t>Humpback Anglerfish</t>
+  </si>
+  <si>
+    <t>Melanocetus johnsonii</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][PlayFishBottomRow] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>The humpback anglerfish is more commonly found at shallower depths than other species in its genus.</t>
+  </si>
+  <si>
+    <t>Humphead Wrasse</t>
+  </si>
+  <si>
+    <t>Cheilinus undulatus</t>
+  </si>
+  <si>
+    <t>[FishEgg][ArrowDown][FlipperGreen] on each</t>
+  </si>
+  <si>
+    <t>It excavates by ejecting water to displace sand. Then it noses around for food.</t>
+  </si>
+  <si>
+    <t>Indo-Pacific Sailfish</t>
+  </si>
+  <si>
+    <t>Istiophorus platypterus</t>
+  </si>
+  <si>
+    <t>[DrawCard][DrawCard][FishHatch]</t>
+  </si>
+  <si>
+    <t>The world’s fastest swimming fish, its intricate dorsal fin, shaped like a sail, helps it to reach up to 110 km per hour.</t>
+  </si>
+  <si>
+    <t>Japanese Anchovy</t>
+  </si>
+  <si>
+    <t>Endraulis japonicus</t>
+  </si>
+  <si>
+    <t>Large schools tend to swim close to the surface during the full moon, their silver scales shimmering in the light.</t>
+  </si>
+  <si>
+    <t>Kaluga</t>
+  </si>
+  <si>
+    <t>Huso dauricus</t>
+  </si>
+  <si>
+    <t>Endangered throughout its range from overfishing, this sturgeon spends much of its life in estuaries and rivers.</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3187,6 +3376,36 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>60</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" t="s">
+        <v>225</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53">
@@ -3195,6 +3414,39 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
+      <c r="C53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>900</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" t="s">
+        <v>229</v>
+      </c>
+      <c r="V53" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54">
@@ -3203,6 +3455,42 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
+      <c r="C54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>1100</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>233</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="V54" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55">
@@ -3211,6 +3499,36 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
+      <c r="C55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>170</v>
+      </c>
+      <c r="N55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" t="s">
+        <v>134</v>
+      </c>
+      <c r="V55" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56">
@@ -3219,6 +3537,39 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>60</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="U56" t="s">
+        <v>101</v>
+      </c>
+      <c r="V56" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57">
@@ -3227,6 +3578,45 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>125</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>102</v>
+      </c>
+      <c r="V57" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58">
@@ -3235,6 +3625,45 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
+      <c r="C58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>600</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
+        <v>247</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="V58" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59">
@@ -3243,6 +3672,42 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59">
+        <v>550</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" t="s">
+        <v>251</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="V59" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60">
@@ -3251,6 +3716,33 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
+      <c r="C60" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>16</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" t="s">
+        <v>255</v>
+      </c>
+      <c r="V60" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61">
@@ -3259,6 +3751,39 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>110</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" t="s">
+        <v>214</v>
+      </c>
+      <c r="V61" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62">
@@ -3267,6 +3792,36 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
+      <c r="C62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>90</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" t="s">
+        <v>262</v>
+      </c>
+      <c r="V62" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63">
@@ -3275,6 +3830,48 @@
       <c r="B63" t="s">
         <v>4</v>
       </c>
+      <c r="C63" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>22</v>
+      </c>
+      <c r="N63" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" t="s">
+        <v>266</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64">
@@ -3283,6 +3880,42 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
+      <c r="C64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
+        <v>270</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="V64" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65">
@@ -3291,6 +3924,33 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>225</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
+        <v>274</v>
+      </c>
+      <c r="V65" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66">
@@ -3299,6 +3959,39 @@
       <c r="B66" t="s">
         <v>4</v>
       </c>
+      <c r="C66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>350</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>278</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="V66" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67">
@@ -3307,6 +4000,42 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>18</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" t="s">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s">
+        <v>100</v>
+      </c>
+      <c r="V67" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68">
@@ -3314,6 +4043,36 @@
       </c>
       <c r="B68" t="s">
         <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>560</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="V68" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\finsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D041EF1-A0C3-4477-A6E2-FADE3821867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613B63A-DC28-4128-9332-1FD27C623337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28670" yWindow="0" windowWidth="38600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28720" yWindow="0" windowWidth="38570" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="349">
   <si>
     <t>id</t>
   </si>
@@ -883,6 +883,195 @@
   </si>
   <si>
     <t>Endangered throughout its range from overfishing, this sturgeon spends much of its life in estuaries and rivers.</t>
+  </si>
+  <si>
+    <t>Kawakawa</t>
+  </si>
+  <si>
+    <t>Euthynnus affinis</t>
+  </si>
+  <si>
+    <t>[FishEgg][ArrowDown][FlipperBlue]</t>
+  </si>
+  <si>
+    <t>Adults live in open waters but remain close to the shoreline. Their young may enter bays and harbors.</t>
+  </si>
+  <si>
+    <t>Largetooth Flounder</t>
+  </si>
+  <si>
+    <t>Pseudorhombus arsius</t>
+  </si>
+  <si>
+    <t>[FishEgg][ArrowDown][FlipperGreen]</t>
+  </si>
+  <si>
+    <t>The largetooth flounder is a species of left- eyed flatfish with both eyes of the adult on the left side of its body.</t>
+  </si>
+  <si>
+    <t>Leafy Seadragon</t>
+  </si>
+  <si>
+    <t>Phycodurus eques</t>
+  </si>
+  <si>
+    <t>Lobes of skin growing all over it provide camouflage, giving it the appearance of seaweed, even as it swims.</t>
+  </si>
+  <si>
+    <t>Live Sharksucker</t>
+  </si>
+  <si>
+    <t>Echeneis naucrates</t>
+  </si>
+  <si>
+    <t>[ConsumeFish1][ConsumeFish1]</t>
+  </si>
+  <si>
+    <t>This fish can attach itself to any large host, even scuba divers, using the oval-shaped sucking disc on its head.</t>
+  </si>
+  <si>
+    <t>Long-Snouted Lancetfish</t>
+  </si>
+  <si>
+    <t>Alepisaurus ferox</t>
+  </si>
+  <si>
+    <t>[DrawCard][DrawCard][DrawCard][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>Voracious eaters, many new species of fish and mollusks have been discovered in the contents of their stomachs.</t>
+  </si>
+  <si>
+    <t>Longspine Porcupinefish</t>
+  </si>
+  <si>
+    <t>Diodon holocanthus</t>
+  </si>
+  <si>
+    <t>It uses its beak and the plates on the roof of its mouth to crush prey that would otherwise be indigestible.</t>
+  </si>
+  <si>
+    <t>Mahi-Mahi</t>
+  </si>
+  <si>
+    <t>Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t>Its common name means “strong-strong” in Hawaiian. Flyingfishes make up nearly 25% of the diet of adults.</t>
+  </si>
+  <si>
+    <t>Maletese Ray</t>
+  </si>
+  <si>
+    <t>Leucoraja melitensis</t>
+  </si>
+  <si>
+    <t>Critically endangered due to habitat loss, the Maltese ray faces a high risk of extinction in the wild.</t>
+  </si>
+  <si>
+    <t>Mariana Snailfish</t>
+  </si>
+  <si>
+    <t>Pseudoliparis swirei</t>
+  </si>
+  <si>
+    <t>It has been observed at a depth of 8,178 m, making it one of the deepest dwelling fishes on the planet.</t>
+  </si>
+  <si>
+    <t>Mediterranean Damselfish</t>
+  </si>
+  <si>
+    <t>Chromis chromis</t>
+  </si>
+  <si>
+    <t>Though normally a peaceful species, males aggressively guard the eggs while they develop.</t>
+  </si>
+  <si>
+    <t>Mediterranean Parrotfish</t>
+  </si>
+  <si>
+    <t>Sparisoma cretense</t>
+  </si>
+  <si>
+    <t>It starts life as female, then changes to male in adulthood, turning from bright red and yellow to gray and blue.</t>
+  </si>
+  <si>
+    <t>Midwater Scorpionfish</t>
+  </si>
+  <si>
+    <t>Ectreposebastes imus</t>
+  </si>
+  <si>
+    <t>This fish has often been seen suspending itself vertically in the water, with its mouth pointing up towards the surface.</t>
+  </si>
+  <si>
+    <t>Ocean sunfish</t>
+  </si>
+  <si>
+    <t>Mola mola</t>
+  </si>
+  <si>
+    <t>The largest known bony fish, it basks on the surface to thermally recharge after feeding in deeper, colder waters.</t>
+  </si>
+  <si>
+    <t>Oceanic Puffer</t>
+  </si>
+  <si>
+    <t>Lagocephalus lagocephalus</t>
+  </si>
+  <si>
+    <t>Its Latin name means “rabbit head,” and, like many puffers, it contains neurotoxins that may be fatal to humans if eaten.</t>
+  </si>
+  <si>
+    <t>Pacific Sardine</t>
+  </si>
+  <si>
+    <t>Sardinops sagax</t>
+  </si>
+  <si>
+    <t>[FishEgg][FishEgg][FishHatch][FishHatch]</t>
+  </si>
+  <si>
+    <t>Forming schools of up to 10 million fish, it is, at times, the most abundant species in the California Current.</t>
+  </si>
+  <si>
+    <t>Pacific White Skate</t>
+  </si>
+  <si>
+    <t>Bathyraja spinosissima</t>
+  </si>
+  <si>
+    <t>[FishHatch][YoungFish]</t>
+  </si>
+  <si>
+    <t>Most skates only have dermal denticles on their dorsal side, but this one has tiny spines on its belly as well.</t>
+  </si>
+  <si>
+    <t>Pale Chimaera</t>
+  </si>
+  <si>
+    <t>Hydrolagus pallidus</t>
+  </si>
+  <si>
+    <t>Dubbed “ghost sharks,” chimaeras “flap” their large pectoral fins to propel themselves forward (unlike sharks).</t>
+  </si>
+  <si>
+    <t>Paintspotted Moray</t>
+  </si>
+  <si>
+    <t>Gymnothorax pictus</t>
+  </si>
+  <si>
+    <t>[Discard][Discard][Discard]</t>
+  </si>
+  <si>
+    <t>It inhabits reef flats and rocky intertidal shorelines, and it will sometimes leave the water in pursuit of prey.</t>
+  </si>
+  <si>
+    <t>3 [Wave] if [SchoolFish] on this fish</t>
+  </si>
+  <si>
+    <t>10 [Wave] if [FishEgg] + [YoungFish] + [SchoolFish] on this fish</t>
   </si>
 </sst>
 </file>
@@ -918,9 +1107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2917,7 +3105,7 @@
       <c r="U40" t="s">
         <v>100</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3383,7 +3571,7 @@
         <v>224</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -4082,6 +4270,36 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
+      <c r="C69" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" t="s">
+        <v>287</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>100</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" t="s">
+        <v>288</v>
+      </c>
+      <c r="V69" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70">
@@ -4090,6 +4308,36 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>45</v>
+      </c>
+      <c r="N70" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="V70" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71">
@@ -4098,6 +4346,36 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
+      <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>35</v>
+      </c>
+      <c r="N71" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="V71" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72">
@@ -4147,6 +4425,33 @@
       <c r="B73" t="s">
         <v>4</v>
       </c>
+      <c r="C73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>110</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" t="s">
+        <v>299</v>
+      </c>
+      <c r="V73" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74">
@@ -4155,6 +4460,42 @@
       <c r="B74" t="s">
         <v>4</v>
       </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>200</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" t="s">
+        <v>303</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="V74" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75">
@@ -4163,6 +4504,39 @@
       <c r="B75" t="s">
         <v>4</v>
       </c>
+      <c r="C75" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>50</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" t="s">
+        <v>130</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="V75" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76">
@@ -4171,6 +4545,39 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
+      <c r="C76" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>210</v>
+      </c>
+      <c r="N76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77">
@@ -4179,6 +4586,39 @@
       <c r="B77" t="s">
         <v>4</v>
       </c>
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>40</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78">
@@ -4187,6 +4627,33 @@
       <c r="B78" t="s">
         <v>4</v>
       </c>
+      <c r="C78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>28</v>
+      </c>
+      <c r="N78" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" t="s">
+        <v>255</v>
+      </c>
+      <c r="V78" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79">
@@ -4195,6 +4662,36 @@
       <c r="B79" t="s">
         <v>4</v>
       </c>
+      <c r="C79" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79" t="s">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s">
+        <v>100</v>
+      </c>
+      <c r="V79" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80">
@@ -4203,64 +4700,319 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>50</v>
+      </c>
+      <c r="N80" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80" t="s">
+        <v>70</v>
+      </c>
+      <c r="U80" t="s">
+        <v>102</v>
+      </c>
+      <c r="V80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>18</v>
+      </c>
+      <c r="N81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="V81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>330</v>
+      </c>
+      <c r="N82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O82" t="s">
+        <v>176</v>
+      </c>
+      <c r="V82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>60</v>
+      </c>
+      <c r="N83" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83" t="s">
+        <v>215</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="V83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>40</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
+        <v>334</v>
+      </c>
+      <c r="V84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>150</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" t="s">
+        <v>338</v>
+      </c>
+      <c r="V85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" t="s">
+        <v>341</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>137</v>
+      </c>
+      <c r="N86" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" t="s">
+        <v>348</v>
+      </c>
+      <c r="V86" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" t="s">
+        <v>344</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>140</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" t="s">
+        <v>345</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="V87" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4268,7 +5020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4276,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4284,7 +5036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4292,7 +5044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4300,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4308,7 +5060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4316,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4324,7 +5076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\finsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613B63A-DC28-4128-9332-1FD27C623337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43FFD1E-ED9B-4363-AF7F-AF9221F0C9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28720" yWindow="0" windowWidth="38570" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="515">
   <si>
     <t>id</t>
   </si>
@@ -1072,6 +1072,504 @@
   </si>
   <si>
     <t>10 [Wave] if [FishEgg] + [YoungFish] + [SchoolFish] on this fish</t>
+  </si>
+  <si>
+    <t>Paraliparis</t>
+  </si>
+  <si>
+    <t>Paraliparis antarcticus</t>
+  </si>
+  <si>
+    <t>This species does not have a common name of its own. It’s a snailfish—scaleless with a thin, loose, gelatinous skin.</t>
+  </si>
+  <si>
+    <t>Patagonian Toothfish</t>
+  </si>
+  <si>
+    <t>Dissostichus eleginoides</t>
+  </si>
+  <si>
+    <t>[DrawCard][FishEgg][FishHatch][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>Antifreeze proteins prevent its blood and tissues from freezing in subzero temperatures.</t>
+  </si>
+  <si>
+    <t>Pelican Eel</t>
+  </si>
+  <si>
+    <t>Eurypharynx pelecanoides</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][FishLengthMedium] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>The mouth of the pelican eel can open wide enough to swallow prey much larger than the eel itself.</t>
+  </si>
+  <si>
+    <t>Pennant Coralfish</t>
+  </si>
+  <si>
+    <t>Heniochus acuminatus</t>
+  </si>
+  <si>
+    <t>The juveniles are solitary and sometimes clean parasites off other, larger fish. Adults live in pairs and feed on zooplankton.</t>
+  </si>
+  <si>
+    <t>Pilotfish</t>
+  </si>
+  <si>
+    <t>Naucrates ductor</t>
+  </si>
+  <si>
+    <t>[Discard][Discard][Discard][Discard]</t>
+  </si>
+  <si>
+    <t>This carnivorous fish tends to follow sharks and ships to feed on parasites and leftover scraps of food.</t>
+  </si>
+  <si>
+    <t>Plate Fish</t>
+  </si>
+  <si>
+    <t>Bothus lunatus</t>
+  </si>
+  <si>
+    <t>Plate fish are experts at camouflage and can quickly change colors to match their surroundings.</t>
+  </si>
+  <si>
+    <t>Pudgy Cusk-Eel</t>
+  </si>
+  <si>
+    <t>Spectrunculus grandis</t>
+  </si>
+  <si>
+    <t>[FishEgg][ArrowDown][FlipperBlue] on each</t>
+  </si>
+  <si>
+    <t>The pudgy cusk-eel is a common fish of deep oceans. It lives along the ocean floor as deep as 4,300 m.</t>
+  </si>
+  <si>
+    <t>Pygmy Seahorse</t>
+  </si>
+  <si>
+    <t>Hippocampus bargibanti</t>
+  </si>
+  <si>
+    <t>It is nearly indistinguishable from the coral where it is found because of its tiny size and specialized camouflage.</t>
+  </si>
+  <si>
+    <t>Red Lionfish</t>
+  </si>
+  <si>
+    <t>Pterois volitans</t>
+  </si>
+  <si>
+    <t>[FishFromHand][ArrowDown][Sun]</t>
+  </si>
+  <si>
+    <t>Though it is a staple in the aquarium fish trade and a popular attraction for divers, this fish is quite venomous.</t>
+  </si>
+  <si>
+    <t>Red Scorpionfish</t>
+  </si>
+  <si>
+    <t>Scorpaena scrofa</t>
+  </si>
+  <si>
+    <t>A lurking fish that uses camouflage to surprise its food, the spines of its dorsal fin house potent venom glands.</t>
+  </si>
+  <si>
+    <t>Rockmover Wrasse</t>
+  </si>
+  <si>
+    <t>Novaculichtys taeniourus</t>
+  </si>
+  <si>
+    <t>To expose its prey, it will overturn rocks. If threatened, it will dive into the sand and wriggle its way to safety.</t>
+  </si>
+  <si>
+    <t>Sailfin Flying Fish</t>
+  </si>
+  <si>
+    <t>Parexocoetus brachypterus</t>
+  </si>
+  <si>
+    <t>When they leave the water, they can fly up to 400 meters at speeds of up to 70 km per hour.</t>
+  </si>
+  <si>
+    <t>Sargassum Fish</t>
+  </si>
+  <si>
+    <t>Histrio histrio</t>
+  </si>
+  <si>
+    <t>Sargassum fish spend most of their life drifting with the floating seaweed mats where they live and hunt.</t>
+  </si>
+  <si>
+    <t>Scaleless Black Dragonfish</t>
+  </si>
+  <si>
+    <t>Melanostomias melanops</t>
+  </si>
+  <si>
+    <t>It has a fleshy bioluminescent barbel at its chin, used to lure prey within reach of its heavily toothed mouth.</t>
+  </si>
+  <si>
+    <t>Shortspine African Angler</t>
+  </si>
+  <si>
+    <t>Lophius vaillanti</t>
+  </si>
+  <si>
+    <t>[SchoolFeederMove][DrawCard][DrawCard]</t>
+  </si>
+  <si>
+    <t>The color of its body changes to match its surroundings. It can fully swallow prey as large as itself.</t>
+  </si>
+  <si>
+    <t>Shortspine Spurdog</t>
+  </si>
+  <si>
+    <t>Squalus mitsukurii</t>
+  </si>
+  <si>
+    <t>[YoungFish]</t>
+  </si>
+  <si>
+    <t>A type of dogfish found along the continental shelves, it gives birth to live young after a two-year gestation period.</t>
+  </si>
+  <si>
+    <t>Silver Lightfish</t>
+  </si>
+  <si>
+    <t>Phosichtys argenteus</t>
+  </si>
+  <si>
+    <t>Rows of violet light organs run along its belly, and each eye has additional light organs in front and behind it.</t>
+  </si>
+  <si>
+    <t>Skipjack Tuna</t>
+  </si>
+  <si>
+    <t>Katsuwonus pelamis</t>
+  </si>
+  <si>
+    <t>Skipjack makes up about 70% of all canned or pouched tuna. It is the most caught tuna in the world.</t>
+  </si>
+  <si>
+    <t>Sloan's Viperfish</t>
+  </si>
+  <si>
+    <t>Chauliodus sloani</t>
+  </si>
+  <si>
+    <t>Its jaw can be unhinged, allowing it to open its mouth up to 90 degrees to catch prey as large as 63% of its own body size.</t>
+  </si>
+  <si>
+    <t>Smooth Oreo Dory</t>
+  </si>
+  <si>
+    <t>Pseudocyttus maculatus</t>
+  </si>
+  <si>
+    <t>The smooth oreo dory inhabits continental slopes of all southern continents at depths up to 1,500 m.</t>
+  </si>
+  <si>
+    <t>Snaggletooth</t>
+  </si>
+  <si>
+    <t>Astronesthes niger</t>
+  </si>
+  <si>
+    <t>[SchoolFeederMove][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>It has rows of photophores on its flanks and luminescent patches above its eyes, nostrils, and pectoral fin.</t>
+  </si>
+  <si>
+    <t>Snipe Eel</t>
+  </si>
+  <si>
+    <t>Avocettina infans</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][AllPlayers]</t>
+  </si>
+  <si>
+    <t>The snipe eel’s most unusual feature is its long, slender jaws that curve at the end like the bill of a snipe (bird).</t>
+  </si>
+  <si>
+    <t>Speckled Butterflyfish</t>
+  </si>
+  <si>
+    <t>Chaetodon citrinellus</t>
+  </si>
+  <si>
+    <t>[FishHatch][FishHatch][FishHatch][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>It can easily swim sideways or upside down. One of the few fish that mates for life, it often swims in mated pairs.</t>
+  </si>
+  <si>
+    <t>Spiny Seadevil</t>
+  </si>
+  <si>
+    <t>Neoceratias spinifer</t>
+  </si>
+  <si>
+    <t>The tiny, parasitic male attaches itself to the larger female, its tissues and blood vessels fusing with its host.</t>
+  </si>
+  <si>
+    <t>Spookfish</t>
+  </si>
+  <si>
+    <t>Dolichopteryx rostrata</t>
+  </si>
+  <si>
+    <t>There are several known species of spookfish, an elongated type of barreleye. This species is known from only a few specimens.</t>
+  </si>
+  <si>
+    <t>Spotted Parrotfish</t>
+  </si>
+  <si>
+    <t>Cetoscarus ocellatus</t>
+  </si>
+  <si>
+    <t>With teeth hard as metal, parrotfish eat coral and excrete sand. They also sleep in a protective cocoon of mucus.</t>
+  </si>
+  <si>
+    <t>Stonefish</t>
+  </si>
+  <si>
+    <t>Synanceia horrida</t>
+  </si>
+  <si>
+    <t>The world’s most venomous fish, if you mistake it for a harmless rock, it will pop up its dorsal spines and sting.</t>
+  </si>
+  <si>
+    <t>Stoplight Loosejaw</t>
+  </si>
+  <si>
+    <t>Malacosteus niger</t>
+  </si>
+  <si>
+    <t>[SchoolFeederMove][SchoolFeederMove][SchoolFeederMove]</t>
+  </si>
+  <si>
+    <t>Its jaw is much longer than its skull, nearly 30% of its body length, and its mouth has no floor membrane.</t>
+  </si>
+  <si>
+    <t>Striped Marlin</t>
+  </si>
+  <si>
+    <t>Kajikia audax</t>
+  </si>
+  <si>
+    <t>Compared to other marlin species, the bill of a striped marlin is a bit more slender and blunt.</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Xiphias gladius</t>
+  </si>
+  <si>
+    <t>[FishHatch][DrawCard][DrawCard][DrawCard]</t>
+  </si>
+  <si>
+    <t>Among the fastest of fish, the swordfish uses its bill to slash at its prey to make for an easier catch.</t>
+  </si>
+  <si>
+    <t>Tripodfish</t>
+  </si>
+  <si>
+    <t>Bathypterois grallator</t>
+  </si>
+  <si>
+    <t>Perching on the ocean floor on three long, modified fin rays, it faces into the current to intercept prey drifting by.</t>
+  </si>
+  <si>
+    <t>Tropical Two-Wing Flying Fish</t>
+  </si>
+  <si>
+    <t>Exocoetus volitans</t>
+  </si>
+  <si>
+    <t>The exceptionally large pectoral fins enable this fish to glide for long distances above the surface of the water.</t>
+  </si>
+  <si>
+    <t>Whale Shark</t>
+  </si>
+  <si>
+    <t>Rhincodon typus</t>
+  </si>
+  <si>
+    <t>schoolFishCost</t>
+  </si>
+  <si>
+    <t>(all players) [FishEgg][ArrowDown][FlipperGreen] on each [AllPlayers]</t>
+  </si>
+  <si>
+    <t>The largest fish in the world, it may live 130 years. It has over 300 teeth but feeds on tiny fish, shrimp, and plankton.</t>
+  </si>
+  <si>
+    <t>White Suckerfish</t>
+  </si>
+  <si>
+    <t>Remora albescens</t>
+  </si>
+  <si>
+    <t>It usually attaches itself to a large ray, but sometimes to a shark or a marlin. It often enters the gill chamber or mouth of its host.</t>
+  </si>
+  <si>
+    <t>White-Spotted Puffer</t>
+  </si>
+  <si>
+    <t>Arothron hispidus</t>
+  </si>
+  <si>
+    <t>Also known as the stars-and-stripes puffer, its skin and internal organs are poisonous to humans.</t>
+  </si>
+  <si>
+    <t>Whitemargin Stargazer</t>
+  </si>
+  <si>
+    <t>Uranoschopus sulphureus</t>
+  </si>
+  <si>
+    <t>This venomous fish has electric organs located in a pouch behind its eyes and can discharge up to 50 volts.</t>
+  </si>
+  <si>
+    <t>Wolftrap Angler</t>
+  </si>
+  <si>
+    <t>Lasiognathus beebei</t>
+  </si>
+  <si>
+    <t>This fish has its own natural fishing rod, complete with fishing line, fishhooks, and bioluminescent bait.</t>
+  </si>
+  <si>
+    <t>Yellow Boxfish</t>
+  </si>
+  <si>
+    <t>Ostracion cubicum</t>
+  </si>
+  <si>
+    <t>When it’s threatened, the yellow boxfish releases toxins that protect it from predators.</t>
+  </si>
+  <si>
+    <t>Yellowtail Snapper</t>
+  </si>
+  <si>
+    <t>Ocyurum chrysurus</t>
+  </si>
+  <si>
+    <t>Its Latin name is derived from the words “golden swift tail” because its bright yellow tail is forked like that of a swift.</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>Barreleye</t>
+  </si>
+  <si>
+    <t>Macropinna microstoma</t>
+  </si>
+  <si>
+    <t>Its head is transparent with tubular eyes peering up from inside. The twin eyeholes in front are actually nostrils.</t>
+  </si>
+  <si>
+    <t>Blue Lanternfish</t>
+  </si>
+  <si>
+    <t>Diaphus coeruleus</t>
+  </si>
+  <si>
+    <t>[DrawCard][DrawCard][DrawCard][DrawCard]</t>
+  </si>
+  <si>
+    <t>Using glowing blue-green lights embedded all over its body, it can see and signal in the dark ocean depths.</t>
+  </si>
+  <si>
+    <t>Bonefish</t>
+  </si>
+  <si>
+    <t>Albula vulpes</t>
+  </si>
+  <si>
+    <t>While feeding, it can be found in waters as shallow as 10 cm. Then it retreats to waters as deep as 100 meters.</t>
+  </si>
+  <si>
+    <t>Smoothcheek Lanternfish</t>
+  </si>
+  <si>
+    <t>Bolinichtys indicus</t>
+  </si>
+  <si>
+    <t>[FishEgg][FishEgg][DrawCard][DrawCard]</t>
+  </si>
+  <si>
+    <t>These bioluminescent fish are found in the depths during the day and rise to the surface at night to feed.</t>
+  </si>
+  <si>
+    <t>Longfin Batfish</t>
+  </si>
+  <si>
+    <t>Platax teira</t>
+  </si>
+  <si>
+    <t>A peaceful, social fish, the longfin batfish forms schools with fish from other species.</t>
+  </si>
+  <si>
+    <t>Mandarinfish</t>
+  </si>
+  <si>
+    <t>Synchiropus splendidus</t>
+  </si>
+  <si>
+    <t>[DrawCard][DrawCard][DrawCard][FishEgg]</t>
+  </si>
+  <si>
+    <t>Its common name comes from its vivid coloration, evoking the robes of the imperial Chinese civil service.</t>
+  </si>
+  <si>
+    <t>Orange Roughy</t>
+  </si>
+  <si>
+    <t>Hoplostethus atlanticus</t>
+  </si>
+  <si>
+    <t>[DrawCard][DrawCard][DrawCard][Discard]</t>
+  </si>
+  <si>
+    <t>Orange roughy are estimated to live for over 150 years and don’t reproduce until they are 20 to 40 years old.</t>
+  </si>
+  <si>
+    <t>Porkfish</t>
+  </si>
+  <si>
+    <t>Anisotremus virginicus</t>
+  </si>
+  <si>
+    <t>It gets its common name from the sound it makes when it grinds its teeth and how it makes pig-like grunts.</t>
+  </si>
+  <si>
+    <t>Saddleback Butterflyfish</t>
+  </si>
+  <si>
+    <t>Chaetodon ephippium</t>
+  </si>
+  <si>
+    <t>“Saddleback” refers to its white-bordered black spot. This fish inhabits coral reefs, rocky shores, and lagoons.</t>
+  </si>
+  <si>
+    <t>White-Banded Triggerfish</t>
+  </si>
+  <si>
+    <t>Rhinecanthus aculeatus</t>
+  </si>
+  <si>
+    <t>Its body is divided into roughly geometric areas, each with a different design and color pattern.</t>
   </si>
 </sst>
 </file>
@@ -1127,9 +1625,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90EFF69F-B6CB-403D-8E09-1B0373352E63}" name="Table1" displayName="Table1" ref="A1:V126" totalsRowShown="0">
-  <autoFilter ref="A1:V126" xr:uid="{90EFF69F-B6CB-403D-8E09-1B0373352E63}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90EFF69F-B6CB-403D-8E09-1B0373352E63}" name="Table1" displayName="Table1" ref="A1:W136" totalsRowShown="0">
+  <autoFilter ref="A1:W136" xr:uid="{90EFF69F-B6CB-403D-8E09-1B0373352E63}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{5385F5AB-DA5D-4F8C-B882-645353B089CC}" name="id"/>
     <tableColumn id="2" xr3:uid="{56878334-8AF3-443C-92AD-65E8A7BC3337}" name="group"/>
     <tableColumn id="3" xr3:uid="{847455B8-84DB-4CB8-B4A3-CC50FF6DFE1C}" name="name"/>
@@ -1138,6 +1636,7 @@
     <tableColumn id="6" xr3:uid="{06DA9AD6-FA6C-4EDF-8054-C21B5EE5ADFB}" name="eggCost"/>
     <tableColumn id="7" xr3:uid="{61CF3DCB-39CF-4291-A184-229CC8DD6143}" name="youngCost"/>
     <tableColumn id="8" xr3:uid="{119C6015-45B4-47B3-8999-442309E5079F}" name="consuming"/>
+    <tableColumn id="24" xr3:uid="{28B9B044-64EB-43EA-84AD-0F5F496D8BAB}" name="schoolFishCost"/>
     <tableColumn id="9" xr3:uid="{8592544B-EF81-4241-844B-6C9E28136B41}" name="sunlight"/>
     <tableColumn id="10" xr3:uid="{9738C359-4B66-45A7-BC93-D87A90B02D43}" name="twilight"/>
     <tableColumn id="11" xr3:uid="{EA1FBFC7-E76F-48E2-BC53-BFD86DD42BFD}" name="midnight"/>
@@ -1420,35 +1919,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="W136" sqref="W136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
     <col min="2" max="2" width="5.796875" customWidth="1"/>
     <col min="3" max="3" width="18.3984375" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.06640625" customWidth="1"/>
     <col min="7" max="7" width="11.265625" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.9296875" customWidth="1"/>
-    <col min="14" max="14" width="11.53125" customWidth="1"/>
-    <col min="15" max="15" width="42.3984375" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.53125" customWidth="1"/>
-    <col min="21" max="21" width="6.19921875" customWidth="1"/>
-    <col min="22" max="22" width="96.796875" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="12" max="12" width="9.9296875" customWidth="1"/>
+    <col min="15" max="15" width="11.53125" customWidth="1"/>
+    <col min="16" max="16" width="42.3984375" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="7.265625" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.53125" customWidth="1"/>
+    <col min="22" max="22" width="6.19921875" customWidth="1"/>
+    <col min="23" max="23" width="92.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1474,49 +1974,52 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>99</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1535,32 +2038,32 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1576,26 +2079,26 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>90</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1611,26 +2114,26 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1646,32 +2149,32 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>240</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1687,32 +2190,32 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>4</v>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>200</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1728,29 +2231,29 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
         <v>80</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>22</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>42</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1769,32 +2272,32 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>450</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>46</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1810,29 +2313,29 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>90</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>50</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1851,32 +2354,32 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>4</v>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
         <v>60</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>54</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>100</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1898,29 +2401,29 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>315</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>58</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1939,26 +2442,26 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>150</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>23</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>62</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1980,29 +2483,29 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>400</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>66</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>101</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2021,35 +2524,35 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>150</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>70</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
         <v>102</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2065,29 +2568,29 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
         <v>9</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>37</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>70</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>102</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2106,29 +2609,29 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>200</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>37</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>77</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>100</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2147,35 +2650,35 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>22</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>222</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="W17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2191,35 +2694,35 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>8</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>235</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>37</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>77</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>100</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2238,29 +2741,29 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
         <v>40</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>22</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>87</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2276,9 +2779,6 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
       <c r="K20">
         <v>1</v>
       </c>
@@ -2286,19 +2786,22 @@
         <v>1</v>
       </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>15</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>23</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>91</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2317,29 +2820,29 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>75</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>22</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>95</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2355,9 +2858,6 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22">
         <v>1</v>
       </c>
@@ -2365,22 +2865,25 @@
         <v>1</v>
       </c>
       <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>64</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>22</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>103</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2396,32 +2899,32 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>25</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>22</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>107</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2437,29 +2940,29 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
         <v>70</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>23</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>107</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2475,29 +2978,29 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
         <v>30</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>22</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>114</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2513,26 +3016,26 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
         <v>70</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>37</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>118</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2548,29 +3051,29 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="L27">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>14</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>37</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>122</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>101</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2589,9 +3092,6 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28">
         <v>1</v>
       </c>
@@ -2599,25 +3099,28 @@
         <v>1</v>
       </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>550</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>22</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>126</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2636,26 +3139,26 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="L29">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>80</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>23</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>130</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2671,29 +3174,29 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
         <v>100</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>22</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>134</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2709,26 +3212,26 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
         <v>11</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>23</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>138</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2747,32 +3250,32 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>16</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>23</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>142</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2788,9 +3291,6 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
         <v>1</v>
       </c>
@@ -2798,25 +3298,28 @@
         <v>1</v>
       </c>
       <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>3</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>56</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>23</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>146</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2835,26 +3338,26 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="L34">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>120</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>22</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>134</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2873,29 +3376,29 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
+      <c r="J35">
+        <v>1</v>
       </c>
       <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
         <v>30</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>37</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>153</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>101</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2914,32 +3417,32 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="L36">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>5</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>50</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>23</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>157</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2958,29 +3461,29 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
         <v>8</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>65</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>22</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>161</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2996,32 +3499,32 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
+      <c r="J38">
+        <v>1</v>
       </c>
       <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
         <v>180</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>22</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>165</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3040,35 +3543,35 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>44</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>22</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>169</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3087,29 +3590,29 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="L40">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <v>3</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>115</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>37</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>77</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>100</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3128,26 +3631,26 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>200</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>22</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>176</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3163,29 +3666,29 @@
       <c r="E42">
         <v>3</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="L42">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="M42">
         <v>3</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>20</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>23</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>180</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3201,29 +3704,29 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="L43">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="M43">
         <v>3</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>60</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>22</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>180</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3242,29 +3745,29 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="L44">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44">
         <v>9</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>600</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>37</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>66</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>101</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3280,26 +3783,26 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
       <c r="L45">
         <v>2</v>
       </c>
       <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
         <v>46</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>23</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>25</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3318,32 +3821,32 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
         <v>8</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>300</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>22</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>193</v>
       </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="W46" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3359,32 +3862,32 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
+      <c r="J47">
+        <v>1</v>
       </c>
       <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
         <v>11</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>37</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>66</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
         <v>101</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3400,29 +3903,29 @@
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <v>3</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>31</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>22</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>200</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3441,35 +3944,35 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
         <v>6</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>17</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>37</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>38</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="W49" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3491,9 +3994,6 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50">
         <v>1</v>
       </c>
@@ -3501,22 +4001,25 @@
         <v>1</v>
       </c>
       <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
         <v>7</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>520</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>22</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>207</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3532,32 +4035,32 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
+      <c r="K51">
+        <v>1</v>
       </c>
       <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
         <v>12</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>37</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>214</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
       <c r="Q51">
         <v>1</v>
       </c>
-      <c r="V51" t="s">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="W51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3573,29 +4076,29 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="L52">
+      <c r="J52">
         <v>4</v>
       </c>
       <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
         <v>60</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>22</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>225</v>
       </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="V52" t="s">
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3614,29 +4117,29 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="L53">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <v>5</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>900</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>22</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>229</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3655,32 +4158,32 @@
       <c r="G54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="L54">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="M54">
         <v>9</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1100</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>22</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>233</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="W54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3699,26 +4202,26 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="L55">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>5</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>170</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>23</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>134</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3737,29 +4240,29 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="L56">
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="M56">
         <v>5</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>60</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>37</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>66</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>101</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3778,35 +4281,35 @@
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>4</v>
+      <c r="K57">
+        <v>1</v>
       </c>
       <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
         <v>125</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>37</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>243</v>
       </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
         <v>102</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3825,9 +4328,6 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58">
         <v>1</v>
       </c>
@@ -3835,25 +4335,28 @@
         <v>1</v>
       </c>
       <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
         <v>10</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>600</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>22</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>247</v>
       </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="W58" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3872,32 +4375,32 @@
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
         <v>8</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>550</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>22</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>251</v>
       </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="W59" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3913,26 +4416,26 @@
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
       <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>3</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>16</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>22</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>255</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3951,29 +4454,29 @@
       <c r="F61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61">
         <v>1</v>
       </c>
-      <c r="L61">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61">
         <v>7</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>110</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>37</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>214</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3992,26 +4495,26 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="L62">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="M62">
         <v>6</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>90</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>22</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>262</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4030,9 +4533,6 @@
       <c r="F63">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63">
         <v>1</v>
       </c>
@@ -4040,28 +4540,31 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
         <v>22</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>23</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>266</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="V63" t="s">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4077,35 +4580,35 @@
       <c r="G64">
         <v>2</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
         <v>8</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>18</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>22</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>270</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="V64" t="s">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="W64" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4121,26 +4624,26 @@
       <c r="F65">
         <v>2</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>4</v>
+      <c r="J65">
+        <v>1</v>
       </c>
       <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
         <v>225</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>22</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>274</v>
       </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4159,29 +4662,29 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="L66">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <v>7</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>350</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>22</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>278</v>
       </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4200,32 +4703,32 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="L67">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>18</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>37</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>77</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>100</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4244,26 +4747,26 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="L68">
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <v>6</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>560</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>22</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>62</v>
       </c>
-      <c r="V68" t="s">
+      <c r="W68" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4282,26 +4785,26 @@
       <c r="F69">
         <v>2</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="L69">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="M69">
         <v>6</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>100</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>22</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>288</v>
       </c>
-      <c r="V69" t="s">
+      <c r="W69" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4317,29 +4820,29 @@
       <c r="E70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="L70">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <v>5</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>45</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>23</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>292</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4355,29 +4858,29 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>2</v>
+      <c r="J71">
+        <v>1</v>
       </c>
       <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
         <v>35</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>23</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>347</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="V71" t="s">
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4393,32 +4896,32 @@
       <c r="E72">
         <v>3</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="L72">
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <v>6</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>50</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>37</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>215</v>
       </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-      <c r="V72" t="s">
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4434,26 +4937,26 @@
       <c r="F73">
         <v>2</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>4</v>
+      <c r="J73">
+        <v>1</v>
       </c>
       <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
         <v>110</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>22</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>299</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4469,9 +4972,6 @@
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74">
         <v>1</v>
       </c>
@@ -4479,25 +4979,28 @@
         <v>1</v>
       </c>
       <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>200</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>22</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>303</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="V74" t="s">
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4516,29 +5019,29 @@
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="L75">
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <v>5</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>50</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>22</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>130</v>
       </c>
-      <c r="T75">
-        <v>1</v>
-      </c>
-      <c r="V75" t="s">
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4557,29 +5060,29 @@
       <c r="F76">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="L76">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <v>7</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>210</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>37</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>77</v>
       </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="V76" t="s">
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4595,32 +5098,32 @@
       <c r="F77">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>40</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>22</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>91</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="V77" t="s">
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="W77" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4636,26 +5139,26 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
       <c r="L78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
         <v>28</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>23</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>255</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4671,29 +5174,29 @@
       <c r="G79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>4</v>
+      <c r="J79">
+        <v>1</v>
       </c>
       <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
         <v>25</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>37</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>77</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>100</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4712,29 +5215,29 @@
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="L80">
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <v>5</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>50</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>37</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>70</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>102</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4750,9 +5253,6 @@
       <c r="E81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
       <c r="J81">
         <v>1</v>
       </c>
@@ -4760,25 +5260,28 @@
         <v>1</v>
       </c>
       <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>18</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>37</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>38</v>
       </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4797,29 +5300,29 @@
       <c r="F82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82">
         <v>1</v>
       </c>
-      <c r="L82">
-        <v>4</v>
+      <c r="K82">
+        <v>1</v>
       </c>
       <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
         <v>330</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>23</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>176</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4835,32 +5338,32 @@
       <c r="E83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83">
         <v>1</v>
       </c>
-      <c r="L83">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <v>5</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>60</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>37</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>215</v>
       </c>
-      <c r="T83">
-        <v>1</v>
-      </c>
-      <c r="V83" t="s">
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="W83" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4876,26 +5379,26 @@
       <c r="E84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>4</v>
+      <c r="J84">
+        <v>1</v>
       </c>
       <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
         <v>40</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>22</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>334</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4911,29 +5414,29 @@
       <c r="F85">
         <v>2</v>
       </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
         <v>3</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>150</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>22</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>338</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4952,29 +5455,29 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
         <v>137</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>23</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>348</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4990,338 +5493,2050 @@
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>4</v>
+      <c r="J87">
+        <v>1</v>
       </c>
       <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
         <v>140</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>22</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>345</v>
       </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="V87" t="s">
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="W87" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>7</v>
+      </c>
+      <c r="N88">
+        <v>17</v>
+      </c>
+      <c r="O88" t="s">
+        <v>37</v>
+      </c>
+      <c r="P88" t="s">
+        <v>214</v>
+      </c>
+      <c r="W88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>215</v>
+      </c>
+      <c r="O89" t="s">
+        <v>22</v>
+      </c>
+      <c r="P89" t="s">
+        <v>354</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="W89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C90" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" t="s">
+        <v>357</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+      <c r="O90" t="s">
+        <v>22</v>
+      </c>
+      <c r="P90" t="s">
+        <v>358</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="W90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" t="s">
+        <v>361</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>25</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P91" t="s">
+        <v>153</v>
+      </c>
+      <c r="V91" t="s">
+        <v>101</v>
+      </c>
+      <c r="W91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" t="s">
+        <v>364</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>70</v>
+      </c>
+      <c r="O92" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" t="s">
+        <v>365</v>
+      </c>
+      <c r="W92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>50</v>
+      </c>
+      <c r="O93" t="s">
+        <v>37</v>
+      </c>
+      <c r="P93" t="s">
+        <v>70</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="V93" t="s">
+        <v>102</v>
+      </c>
+      <c r="W93" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C94" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" t="s">
+        <v>371</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>125</v>
+      </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" t="s">
+        <v>372</v>
+      </c>
+      <c r="W94" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>374</v>
+      </c>
+      <c r="D95" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>37</v>
+      </c>
+      <c r="P95" t="s">
+        <v>70</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="V95" t="s">
+        <v>102</v>
+      </c>
+      <c r="W95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96" t="s">
+        <v>377</v>
+      </c>
+      <c r="D96" t="s">
+        <v>378</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>45</v>
+      </c>
+      <c r="O96" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" t="s">
+        <v>379</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="W96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97" t="s">
+        <v>381</v>
+      </c>
+      <c r="D97" t="s">
+        <v>382</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>50</v>
+      </c>
+      <c r="O97" t="s">
+        <v>37</v>
+      </c>
+      <c r="P97" t="s">
+        <v>38</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="W97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>384</v>
+      </c>
+      <c r="D98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>30</v>
+      </c>
+      <c r="O98" t="s">
+        <v>37</v>
+      </c>
+      <c r="P98" t="s">
+        <v>153</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="V98" t="s">
+        <v>101</v>
+      </c>
+      <c r="W98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" t="s">
+        <v>388</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>20</v>
+      </c>
+      <c r="O99" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" t="s">
+        <v>66</v>
+      </c>
+      <c r="V99" t="s">
+        <v>101</v>
+      </c>
+      <c r="W99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" t="s">
+        <v>391</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+      <c r="N100">
+        <v>20</v>
+      </c>
+      <c r="O100" t="s">
+        <v>37</v>
+      </c>
+      <c r="P100" t="s">
+        <v>299</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="V100" t="s">
+        <v>101</v>
+      </c>
+      <c r="W100" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" t="s">
+        <v>394</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>30</v>
+      </c>
+      <c r="O101" t="s">
+        <v>37</v>
+      </c>
+      <c r="P101" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="V101" t="s">
+        <v>101</v>
+      </c>
+      <c r="W101" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" t="s">
+        <v>397</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
+      </c>
+      <c r="N102">
+        <v>80</v>
+      </c>
+      <c r="O102" t="s">
+        <v>22</v>
+      </c>
+      <c r="P102" t="s">
+        <v>398</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="W102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103" t="s">
+        <v>400</v>
+      </c>
+      <c r="D103" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>90</v>
+      </c>
+      <c r="O103" t="s">
+        <v>22</v>
+      </c>
+      <c r="P103" t="s">
+        <v>402</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="W103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104" t="s">
+        <v>404</v>
+      </c>
+      <c r="D104" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>30</v>
+      </c>
+      <c r="O104" t="s">
+        <v>37</v>
+      </c>
+      <c r="P104" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="W104" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" t="s">
+        <v>408</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="N105">
+        <v>110</v>
+      </c>
+      <c r="O105" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" t="s">
+        <v>118</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="W105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>35</v>
+      </c>
+      <c r="O106" t="s">
+        <v>23</v>
+      </c>
+      <c r="P106" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="W106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" t="s">
+        <v>414</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>70</v>
+      </c>
+      <c r="O107" t="s">
+        <v>37</v>
+      </c>
+      <c r="P107" t="s">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s">
+        <v>100</v>
+      </c>
+      <c r="W107" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>6</v>
+      </c>
+      <c r="N108">
+        <v>16</v>
+      </c>
+      <c r="O108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P108" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="W108" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109" t="s">
+        <v>420</v>
+      </c>
+      <c r="D109" t="s">
+        <v>421</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>80</v>
+      </c>
+      <c r="O109" t="s">
+        <v>37</v>
+      </c>
+      <c r="P109" t="s">
+        <v>422</v>
+      </c>
+      <c r="W109" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>13</v>
+      </c>
+      <c r="O110" t="s">
+        <v>23</v>
+      </c>
+      <c r="P110" t="s">
+        <v>426</v>
+      </c>
+      <c r="W110" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" t="s">
+        <v>429</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>10</v>
+      </c>
+      <c r="O111" t="s">
+        <v>22</v>
+      </c>
+      <c r="P111" t="s">
+        <v>345</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+      <c r="W111" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112" t="s">
+        <v>37</v>
+      </c>
+      <c r="P112" t="s">
+        <v>422</v>
+      </c>
+      <c r="W112" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>80</v>
+      </c>
+      <c r="O113" t="s">
+        <v>37</v>
+      </c>
+      <c r="P113" t="s">
+        <v>70</v>
+      </c>
+      <c r="W113" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" t="s">
+        <v>438</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>60</v>
+      </c>
+      <c r="O114" t="s">
+        <v>37</v>
+      </c>
+      <c r="P114" t="s">
+        <v>38</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="W114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" t="s">
+        <v>441</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>25</v>
+      </c>
+      <c r="O115" t="s">
+        <v>22</v>
+      </c>
+      <c r="P115" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+      <c r="W115" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" t="s">
+        <v>445</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>420</v>
+      </c>
+      <c r="O116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116" t="s">
+        <v>379</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="W116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>450</v>
+      </c>
+      <c r="O117" t="s">
+        <v>22</v>
+      </c>
+      <c r="P117" t="s">
+        <v>449</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="W117" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118" t="s">
+        <v>451</v>
+      </c>
+      <c r="D118" t="s">
+        <v>452</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>43</v>
+      </c>
+      <c r="O118" t="s">
+        <v>23</v>
+      </c>
+      <c r="P118" t="s">
+        <v>299</v>
+      </c>
+      <c r="W118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>30</v>
+      </c>
+      <c r="O119" t="s">
+        <v>37</v>
+      </c>
+      <c r="P119" t="s">
+        <v>66</v>
+      </c>
+      <c r="V119" t="s">
+        <v>101</v>
+      </c>
+      <c r="W119" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120" t="s">
+        <v>457</v>
+      </c>
+      <c r="D120" t="s">
+        <v>458</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>12</v>
+      </c>
+      <c r="N120">
+        <v>2000</v>
+      </c>
+      <c r="O120" t="s">
+        <v>22</v>
+      </c>
+      <c r="P120" t="s">
+        <v>460</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="W120" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121" t="s">
+        <v>462</v>
+      </c>
+      <c r="D121" t="s">
+        <v>463</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>30</v>
+      </c>
+      <c r="O121" t="s">
+        <v>37</v>
+      </c>
+      <c r="P121" t="s">
+        <v>153</v>
+      </c>
+      <c r="V121" t="s">
+        <v>101</v>
+      </c>
+      <c r="W121" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" t="s">
+        <v>466</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>5</v>
+      </c>
+      <c r="N122">
+        <v>50</v>
+      </c>
+      <c r="O122" t="s">
+        <v>37</v>
+      </c>
+      <c r="P122" t="s">
+        <v>215</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="W122" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>468</v>
+      </c>
+      <c r="D123" t="s">
+        <v>469</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>45</v>
+      </c>
+      <c r="O123" t="s">
+        <v>37</v>
+      </c>
+      <c r="P123" t="s">
+        <v>38</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="W123" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" t="s">
+        <v>472</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>12</v>
+      </c>
+      <c r="O124" t="s">
+        <v>37</v>
+      </c>
+      <c r="P124" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="W124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125" t="s">
+        <v>474</v>
+      </c>
+      <c r="D125" t="s">
+        <v>475</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>6</v>
+      </c>
+      <c r="N125">
+        <v>45</v>
+      </c>
+      <c r="O125" t="s">
+        <v>37</v>
+      </c>
+      <c r="P125" t="s">
+        <v>215</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="W125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>477</v>
+      </c>
+      <c r="D126" t="s">
+        <v>478</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>85</v>
+      </c>
+      <c r="O126" t="s">
+        <v>23</v>
+      </c>
+      <c r="P126" t="s">
+        <v>87</v>
+      </c>
+      <c r="W126" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" t="s">
+        <v>482</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>15</v>
+      </c>
+      <c r="O127" t="s">
+        <v>37</v>
+      </c>
+      <c r="P127" t="s">
+        <v>70</v>
+      </c>
+      <c r="V127" t="s">
+        <v>102</v>
+      </c>
+      <c r="W127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" t="s">
+        <v>484</v>
+      </c>
+      <c r="D128" t="s">
+        <v>485</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>13</v>
+      </c>
+      <c r="O128" t="s">
+        <v>22</v>
+      </c>
+      <c r="P128" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="W128" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>480</v>
+      </c>
+      <c r="C129" t="s">
+        <v>488</v>
+      </c>
+      <c r="D129" t="s">
+        <v>489</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>100</v>
+      </c>
+      <c r="O129" t="s">
+        <v>37</v>
+      </c>
+      <c r="P129" t="s">
+        <v>422</v>
+      </c>
+      <c r="W129" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>480</v>
+      </c>
+      <c r="C130" t="s">
+        <v>491</v>
+      </c>
+      <c r="D130" t="s">
+        <v>492</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>22</v>
+      </c>
+      <c r="P130" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="W130" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>480</v>
+      </c>
+      <c r="C131" t="s">
+        <v>495</v>
+      </c>
+      <c r="D131" t="s">
+        <v>496</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
+        <v>70</v>
+      </c>
+      <c r="O131" t="s">
+        <v>37</v>
+      </c>
+      <c r="P131" t="s">
+        <v>214</v>
+      </c>
+      <c r="W131" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>498</v>
+      </c>
+      <c r="D132" t="s">
+        <v>499</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>7</v>
+      </c>
+      <c r="O132" t="s">
+        <v>22</v>
+      </c>
+      <c r="P132" t="s">
+        <v>500</v>
+      </c>
+      <c r="W132" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>480</v>
+      </c>
+      <c r="C133" t="s">
+        <v>502</v>
+      </c>
+      <c r="D133" t="s">
+        <v>503</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>75</v>
+      </c>
+      <c r="O133" t="s">
+        <v>22</v>
+      </c>
+      <c r="P133" t="s">
+        <v>504</v>
+      </c>
+      <c r="W133" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>480</v>
+      </c>
+      <c r="C134" t="s">
+        <v>506</v>
+      </c>
+      <c r="D134" t="s">
+        <v>507</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>40</v>
+      </c>
+      <c r="O134" t="s">
+        <v>37</v>
+      </c>
+      <c r="P134" t="s">
+        <v>77</v>
+      </c>
+      <c r="V134" t="s">
+        <v>100</v>
+      </c>
+      <c r="W134" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>480</v>
+      </c>
+      <c r="C135" t="s">
+        <v>509</v>
+      </c>
+      <c r="D135" t="s">
+        <v>510</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>30</v>
+      </c>
+      <c r="O135" t="s">
+        <v>37</v>
+      </c>
+      <c r="P135" t="s">
+        <v>118</v>
+      </c>
+      <c r="W135" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>480</v>
+      </c>
+      <c r="C136" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136" t="s">
+        <v>513</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>40</v>
+      </c>
+      <c r="O136" t="s">
+        <v>37</v>
+      </c>
+      <c r="P136" t="s">
+        <v>66</v>
+      </c>
+      <c r="V136" t="s">
+        <v>101</v>
+      </c>
+      <c r="W136" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
